--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\benvi\OneDrive\Documents\NetBeansProjects\9CARDSIEGE_PA\Neural-Network---Matlab\Neural-Network---Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Neural-Network---Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E7D8278A-36EF-43CD-AF68-CCC7FAB75066}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DC7EB22E-B42A-49EC-87F9-B23F48F1FBD2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1_a)" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="69">
   <si>
     <t>Funções de ativação</t>
   </si>
@@ -236,12 +235,15 @@
   </si>
   <si>
     <t xml:space="preserve"> memory size limit</t>
+  </si>
+  <si>
+    <t>divideblock =(0.4,0.4,0.2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,6 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -411,10 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,10 +730,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C22BEA-536C-4760-8256-6E5BF4DA6EFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -749,18 +751,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1523,11 +1525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAB51AA-4F71-47C9-A422-D413A66B3C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,18 +1550,18 @@
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1583,7 +1585,7 @@
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="8">
@@ -1651,7 +1653,7 @@
       <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="8">
@@ -1686,7 +1688,7 @@
       <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -1721,7 +1723,7 @@
       <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -1756,7 +1758,7 @@
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="8">
@@ -1791,7 +1793,7 @@
       <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="8">
@@ -1826,7 +1828,7 @@
       <c r="H11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="8">
@@ -1861,7 +1863,7 @@
       <c r="H12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="8">
@@ -1896,7 +1898,7 @@
       <c r="H13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="8">
@@ -1931,7 +1933,7 @@
       <c r="H14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="8">
@@ -1966,7 +1968,7 @@
       <c r="H15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="8">
@@ -2001,7 +2003,7 @@
       <c r="H16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="8">
@@ -2036,7 +2038,7 @@
       <c r="H17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="8">
@@ -2071,7 +2073,7 @@
       <c r="H18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="8">
@@ -2106,7 +2108,7 @@
       <c r="H19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -2141,7 +2143,7 @@
       <c r="H20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -2176,7 +2178,7 @@
       <c r="H21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="8">
@@ -2211,7 +2213,7 @@
       <c r="H22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="8">
@@ -2246,7 +2248,7 @@
       <c r="H23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="8" t="s">
@@ -2281,7 +2283,7 @@
       <c r="H24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -2316,7 +2318,7 @@
       <c r="H25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="8">
@@ -2351,7 +2353,7 @@
       <c r="H26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="1">
@@ -2386,7 +2388,7 @@
       <c r="H27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="8">
@@ -2421,7 +2423,7 @@
       <c r="H28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="1">
@@ -2456,7 +2458,7 @@
       <c r="H29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="1">
@@ -2491,7 +2493,7 @@
       <c r="H30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -2526,7 +2528,7 @@
       <c r="H31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -2561,7 +2563,7 @@
       <c r="H32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="1">
@@ -2596,7 +2598,7 @@
       <c r="H33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1">
@@ -2631,7 +2633,7 @@
       <c r="H34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="1">
@@ -2639,6 +2641,38 @@
       </c>
       <c r="K34" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35">
+        <v>1.8425644657480578</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>2.9866117404737382</v>
+      </c>
+      <c r="K35">
+        <v>2.0689655172413794</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F254D7F3-980C-4D0C-8139-92B55D888C4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2679,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82984F8B-D6C2-4849-91E3-35FD0F5E4C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
